--- a/SeleniumDemo/Book1.xlsx
+++ b/SeleniumDemo/Book1.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
-    <t>manager</t>
+    <t>atudent</t>
   </si>
   <si>
-    <t>admin</t>
+    <t>Password123</t>
+  </si>
+  <si>
+    <t>student</t>
   </si>
 </sst>
 </file>
@@ -353,18 +356,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
